--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,7 +291,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -987,6 +987,10 @@
   </si>
   <si>
     <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4326,13 +4330,13 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4383,7 +4387,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4404,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4412,7 +4416,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4441,7 +4445,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4494,7 +4498,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4515,7 +4519,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4523,11 +4527,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4549,10 +4553,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4607,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4659,19 +4663,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4720,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4745,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4772,16 +4776,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4831,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4852,7 +4856,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4860,11 +4864,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4883,19 +4887,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4944,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4962,10 +4966,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4999,13 +5003,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5034,10 +5038,10 @@
         <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5055,7 +5059,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5073,10 +5077,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5084,7 +5088,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5107,19 +5111,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5186,10 +5190,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,10 +489,8 @@
   <si>
     <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
 発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。
-【JP Core仕様】検体検査結果の場合、「依頼者オーダ番号(ORC-2)」だけで十分
-・複数の容器で1つの結果のまとまり
-・容器ごとに結果が出るタイミングはずれる
-・オーダ側でオーダ番号が1つにまとまるか別になるかは有り得る</t>
+【JP Core仕様】レポートをユニークに識別する識別子。依頼者オーダー番号と関連付ける場合が多い。
+検体検査の特性として、複数の容器の結果を含む。容器ごと（厳密には項目ごと）に結果のタイミングは異なる場合がある。</t>
   </si>
   <si>
     <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
@@ -603,6 +601,37 @@
     <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
 さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。
 【JP Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
@@ -616,24 +645,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code</t>
   </si>
   <si>
@@ -653,15 +664,6 @@
 検査レポートの利用用途に合わせて、JLAC10のコードを振っても良い。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="11502-2"/&gt;
-    &lt;display value="Laboratory report"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes that describe Diagnostic Reports.</t>
   </si>
   <si>
@@ -678,6 +680,112 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>laboratoryCode</t>
+  </si>
+  <si>
+    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>検体検査レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="11502-2"/&gt;
+  &lt;display value="Laboratory report"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -687,7 +795,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -989,29 +1097,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1448,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,7 +1544,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1484,7 +1570,7 @@
     <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2965,7 +3051,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
@@ -2997,46 +3083,44 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>178</v>
@@ -3057,22 +3141,24 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3094,13 +3180,13 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3108,10 +3194,10 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>79</v>
@@ -3126,13 +3212,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3150,13 +3236,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3165,29 +3251,29 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
@@ -3202,20 +3288,18 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3239,13 +3323,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3263,10 +3347,10 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3278,25 +3362,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3312,23 +3396,19 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3376,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3388,35 +3468,35 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3425,23 +3505,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3477,59 +3555,59 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -3541,19 +3619,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3590,25 +3668,23 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3620,29 +3696,31 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3654,19 +3732,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3676,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3715,7 +3793,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3730,32 +3808,32 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3767,19 +3845,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3828,13 +3906,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3843,32 +3921,32 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3877,22 +3955,22 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3941,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3956,32 +4034,32 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3990,22 +4068,22 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4054,13 +4132,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4069,32 +4147,32 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4103,21 +4181,23 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4165,13 +4245,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4180,32 +4260,32 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4217,19 +4297,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4278,13 +4358,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4296,29 +4376,29 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4327,19 +4407,23 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4387,40 +4471,40 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4436,21 +4520,23 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4498,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4510,28 +4596,28 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4544,25 +4630,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -4611,7 +4697,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4623,16 +4709,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4640,18 +4726,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -4663,19 +4749,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4724,13 +4810,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -4742,10 +4828,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4753,7 +4839,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4761,10 +4847,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -4773,19 +4859,19 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4835,13 +4921,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -4856,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4864,18 +4950,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -4884,22 +4970,22 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4948,13 +5034,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4966,10 +5052,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4977,7 +5063,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4988,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5000,17 +5086,15 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5035,13 +5119,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5059,28 +5143,28 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5088,11 +5172,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5111,20 +5195,18 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5172,7 +5254,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5184,18 +5266,692 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼</t>
+    <t>元になった検査や診断の依頼。【詳細参照】</t>
   </si>
   <si>
     <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
@@ -595,7 +595,7 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー</t>
+    <t>サービスカテゴリー。【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -652,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを説明するコードまたは名前。</t>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
     <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
@@ -873,7 +873,7 @@
 Period</t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
@@ -910,7 +910,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t>レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの作成発行に責任をもつ診断サービス。</t>
@@ -977,7 +977,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者</t>
+    <t>結果の一次解釈者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
@@ -998,7 +998,7 @@
 </t>
   </si>
   <si>
-    <t>レポートのもとになった検体</t>
+    <t>レポートのもとになった検体。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートのもとになった検体に関する詳細情報。</t>
@@ -1026,7 +1026,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果。Observationsリソースが参照される。</t>
+    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
   </si>
   <si>
     <t>[Observations](observation.html)  that are part of this diagnostic report.
@@ -1054,7 +1054,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
   </si>
   <si>
     <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
@@ -1079,7 +1079,7 @@
 </t>
   </si>
   <si>
-    <t>このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
@@ -1163,7 +1163,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
   </si>
   <si>
     <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
@@ -1186,7 +1186,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
@@ -1213,7 +1213,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -842,9 +842,9 @@
     <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
-通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。
-【JP Core仕様】入院の場合には、ラベル印刷日時とは限らない。</t>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
+【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
+※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
     <t>Links the request to the Encounter context.</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
